--- a/Bank+Churn+Data.xlsx
+++ b/Bank+Churn+Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/402a502642110a3f/Desktop/Bootcamp stuff/personal/Bank_churn_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1254" documentId="8_{8A3BE43E-A2CD-3E42-A719-03368F4DE386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5652C779-7954-4EE7-8910-45799A78AA01}"/>
+  <xr:revisionPtr revIDLastSave="1255" documentId="8_{8A3BE43E-A2CD-3E42-A719-03368F4DE386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560F5758-4A39-49D5-99D6-FDFCA0E4BC3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -539,7 +539,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -548,10 +547,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -14830,8 +14829,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>174170</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Churn">
@@ -14854,7 +14853,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14908,8 +14907,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>141516</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Gender">
@@ -14932,7 +14931,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14986,8 +14985,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>55709</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Churn 1">
@@ -15010,7 +15009,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -23160,89 +23159,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{233AA4C0-346F-4C55-A7BA-8D433F4221C6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of CreditScore" fld="2" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B042A17-DCDE-4AEA-9209-2D2E00F6F97D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="B83:E96" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
@@ -23350,7 +23266,7 @@
     <dataField name="Average of CreditScore" fld="2" subtotal="average" baseField="6" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23416,7 +23332,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEE31854-DE85-4178-9272-B75DEC2B087F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="B41:E45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
@@ -23573,7 +23489,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7B8DC52-9F6D-48CF-BB3F-50F3EC851C25}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="B22:F26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
@@ -23769,7 +23685,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{148AB586-BEF6-4069-845D-00F5E90F7959}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="B56:D69" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -23920,6 +23836,89 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{233AA4C0-346F-4C55-A7BA-8D433F4221C6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="B4:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of CreditScore" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -46907,8 +46906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4149C08C-7E29-4154-B44C-DA5A2D97DD4F}">
   <dimension ref="B1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47248,13 +47247,13 @@
       <c r="B43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43">
         <v>124</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43">
         <v>113</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43">
         <v>237</v>
       </c>
     </row>
@@ -47262,13 +47261,13 @@
       <c r="B44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44">
         <v>123</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44">
         <v>140</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44">
         <v>263</v>
       </c>
     </row>
@@ -47276,13 +47275,13 @@
       <c r="B45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45">
         <v>247</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45">
         <v>253</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45">
         <v>500</v>
       </c>
     </row>
@@ -47375,7 +47374,7 @@
       <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57">
         <v>125</v>
       </c>
       <c r="D57" s="18">
@@ -47386,7 +47385,7 @@
       <c r="B58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" s="18">
@@ -47397,7 +47396,7 @@
       <c r="B59" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59">
         <v>69</v>
       </c>
       <c r="D59" s="18">
@@ -47408,7 +47407,7 @@
       <c r="B60" s="7">
         <v>2</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60">
         <v>135</v>
       </c>
       <c r="D60" s="18">
@@ -47419,7 +47418,7 @@
       <c r="B61" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61">
         <v>61</v>
       </c>
       <c r="D61" s="18">
@@ -47430,7 +47429,7 @@
       <c r="B62" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62">
         <v>74</v>
       </c>
       <c r="D62" s="18">
@@ -47441,7 +47440,7 @@
       <c r="B63" s="7">
         <v>3</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63">
         <v>118</v>
       </c>
       <c r="D63" s="18">
@@ -47452,7 +47451,7 @@
       <c r="B64" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64">
         <v>53</v>
       </c>
       <c r="D64" s="18">
@@ -47463,7 +47462,7 @@
       <c r="B65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65">
         <v>65</v>
       </c>
       <c r="D65" s="18">
@@ -47474,7 +47473,7 @@
       <c r="B66" s="7">
         <v>4</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66">
         <v>122</v>
       </c>
       <c r="D66" s="18">
@@ -47485,7 +47484,7 @@
       <c r="B67" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67">
         <v>58</v>
       </c>
       <c r="D67" s="18">
@@ -47496,7 +47495,7 @@
       <c r="B68" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68">
         <v>64</v>
       </c>
       <c r="D68" s="18">
@@ -47507,7 +47506,7 @@
       <c r="B69" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69">
         <v>500</v>
       </c>
       <c r="D69" s="18">
@@ -55325,7 +55324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40230A19-3760-48EF-91C7-4CA7562DD39B}">
   <dimension ref="A1:V501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M25" sqref="M25:T31"/>
     </sheetView>
   </sheetViews>
